--- a/www/IndicatorsPerCountry/Rwanda_GDPperCapita_TerritorialRef_1962_2012_CCode_646.xlsx
+++ b/www/IndicatorsPerCountry/Rwanda_GDPperCapita_TerritorialRef_1962_2012_CCode_646.xlsx
@@ -237,13 +237,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Rwanda_GDPperCapita_TerritorialRef_1962_2012_CCode_646.xlsx
+++ b/www/IndicatorsPerCountry/Rwanda_GDPperCapita_TerritorialRef_1962_2012_CCode_646.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="86">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,178 +36,205 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>547</t>
-  </si>
-  <si>
-    <t>567</t>
-  </si>
-  <si>
-    <t>574</t>
-  </si>
-  <si>
-    <t>584</t>
-  </si>
-  <si>
-    <t>604</t>
-  </si>
-  <si>
-    <t>610</t>
-  </si>
-  <si>
-    <t>620</t>
-  </si>
-  <si>
-    <t>628</t>
-  </si>
-  <si>
-    <t>631</t>
-  </si>
-  <si>
-    <t>652</t>
-  </si>
-  <si>
-    <t>656</t>
-  </si>
-  <si>
-    <t>625</t>
-  </si>
-  <si>
-    <t>695</t>
-  </si>
-  <si>
-    <t>611</t>
-  </si>
-  <si>
-    <t>525</t>
-  </si>
-  <si>
-    <t>548</t>
-  </si>
-  <si>
-    <t>570</t>
-  </si>
-  <si>
-    <t>594</t>
-  </si>
-  <si>
-    <t>618</t>
-  </si>
-  <si>
-    <t>666</t>
-  </si>
-  <si>
-    <t>717</t>
-  </si>
-  <si>
-    <t>705</t>
-  </si>
-  <si>
-    <t>687</t>
-  </si>
-  <si>
-    <t>688</t>
-  </si>
-  <si>
-    <t>700</t>
-  </si>
-  <si>
-    <t>806</t>
-  </si>
-  <si>
-    <t>766</t>
-  </si>
-  <si>
-    <t>779</t>
-  </si>
-  <si>
-    <t>827</t>
-  </si>
-  <si>
-    <t>876</t>
-  </si>
-  <si>
-    <t>952</t>
-  </si>
-  <si>
-    <t>982</t>
-  </si>
-  <si>
-    <t>1030</t>
-  </si>
-  <si>
-    <t>1057</t>
-  </si>
-  <si>
-    <t>983</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>1025</t>
-  </si>
-  <si>
-    <t>918</t>
-  </si>
-  <si>
-    <t>907</t>
-  </si>
-  <si>
-    <t>877.28595655</t>
-  </si>
-  <si>
-    <t>823.075127892</t>
-  </si>
-  <si>
-    <t>859.41599114</t>
-  </si>
-  <si>
-    <t>757.958669958</t>
-  </si>
-  <si>
-    <t>455.597156333</t>
-  </si>
-  <si>
-    <t>706.512921056</t>
-  </si>
-  <si>
-    <t>667.796760633</t>
-  </si>
-  <si>
-    <t>652.730148059</t>
-  </si>
-  <si>
-    <t>677.177752373</t>
-  </si>
-  <si>
-    <t>713.842574689</t>
-  </si>
-  <si>
-    <t>742.431122481</t>
-  </si>
-  <si>
-    <t>774.514390225</t>
-  </si>
-  <si>
-    <t>825.912040483</t>
-  </si>
-  <si>
-    <t>813.63142283</t>
-  </si>
-  <si>
-    <t>824.72455865</t>
-  </si>
-  <si>
-    <t>860.503894873</t>
-  </si>
-  <si>
-    <t>898.407062752</t>
-  </si>
-  <si>
-    <t>943.022105758</t>
-  </si>
-  <si>
-    <t>1020.02117992</t>
+    <t>1020</t>
+  </si>
+  <si>
+    <t>1058</t>
+  </si>
+  <si>
+    <t>1071</t>
+  </si>
+  <si>
+    <t>1090</t>
+  </si>
+  <si>
+    <t>1127</t>
+  </si>
+  <si>
+    <t>1138</t>
+  </si>
+  <si>
+    <t>1156</t>
+  </si>
+  <si>
+    <t>1173</t>
+  </si>
+  <si>
+    <t>1178</t>
+  </si>
+  <si>
+    <t>1216</t>
+  </si>
+  <si>
+    <t>1224</t>
+  </si>
+  <si>
+    <t>1167</t>
+  </si>
+  <si>
+    <t>1296</t>
+  </si>
+  <si>
+    <t>1140</t>
+  </si>
+  <si>
+    <t>980</t>
+  </si>
+  <si>
+    <t>1023</t>
+  </si>
+  <si>
+    <t>1065</t>
+  </si>
+  <si>
+    <t>1109</t>
+  </si>
+  <si>
+    <t>1154</t>
+  </si>
+  <si>
+    <t>1243</t>
+  </si>
+  <si>
+    <t>1337</t>
+  </si>
+  <si>
+    <t>1315</t>
+  </si>
+  <si>
+    <t>1282</t>
+  </si>
+  <si>
+    <t>1288</t>
+  </si>
+  <si>
+    <t>1262</t>
+  </si>
+  <si>
+    <t>1199</t>
+  </si>
+  <si>
+    <t>1387</t>
+  </si>
+  <si>
+    <t>1409</t>
+  </si>
+  <si>
+    <t>1495</t>
+  </si>
+  <si>
+    <t>1584</t>
+  </si>
+  <si>
+    <t>1672</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1680</t>
+  </si>
+  <si>
+    <t>1722</t>
+  </si>
+  <si>
+    <t>1597</t>
+  </si>
+  <si>
+    <t>1621</t>
+  </si>
+  <si>
+    <t>1642</t>
+  </si>
+  <si>
+    <t>1586</t>
+  </si>
+  <si>
+    <t>1538</t>
+  </si>
+  <si>
+    <t>1476</t>
+  </si>
+  <si>
+    <t>1398</t>
+  </si>
+  <si>
+    <t>1282.25940200987</t>
+  </si>
+  <si>
+    <t>1301.68900792678</t>
+  </si>
+  <si>
+    <t>1110.92085707389</t>
+  </si>
+  <si>
+    <t>707.297099996548</t>
+  </si>
+  <si>
+    <t>1049.23853407576</t>
+  </si>
+  <si>
+    <t>976.407910612693</t>
+  </si>
+  <si>
+    <t>932.005892157274</t>
+  </si>
+  <si>
+    <t>950.389473688911</t>
+  </si>
+  <si>
+    <t>975.835922473427</t>
+  </si>
+  <si>
+    <t>1023.61822713066</t>
+  </si>
+  <si>
+    <t>1067.2347821601</t>
+  </si>
+  <si>
+    <t>1154.10609348501</t>
+  </si>
+  <si>
+    <t>1130.04140421816</t>
+  </si>
+  <si>
+    <t>1159.02810839957</t>
+  </si>
+  <si>
+    <t>1210.51054312556</t>
+  </si>
+  <si>
+    <t>1261.76091707443</t>
+  </si>
+  <si>
+    <t>1291.19332531318</t>
+  </si>
+  <si>
+    <t>1364.74501289332</t>
+  </si>
+  <si>
+    <t>1384.2588512137</t>
+  </si>
+  <si>
+    <t>1416.39230711648</t>
+  </si>
+  <si>
+    <t>1449</t>
+  </si>
+  <si>
+    <t>1531</t>
+  </si>
+  <si>
+    <t>1554</t>
+  </si>
+  <si>
+    <t>1615</t>
+  </si>
+  <si>
+    <t>1693</t>
+  </si>
+  <si>
+    <t>1758</t>
   </si>
   <si>
     <t>Description</t>
@@ -954,7 +981,7 @@
         <v>1987.0</v>
       </c>
       <c r="E39" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40">
@@ -971,7 +998,7 @@
         <v>1988.0</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41">
@@ -988,7 +1015,7 @@
         <v>1989.0</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42">
@@ -1005,7 +1032,7 @@
         <v>1990.0</v>
       </c>
       <c r="E42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43">
@@ -1022,7 +1049,7 @@
         <v>1991.0</v>
       </c>
       <c r="E43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44">
@@ -1039,7 +1066,7 @@
         <v>1992.0</v>
       </c>
       <c r="E44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45">
@@ -1056,7 +1083,7 @@
         <v>1993.0</v>
       </c>
       <c r="E45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46">
@@ -1073,7 +1100,7 @@
         <v>1994.0</v>
       </c>
       <c r="E46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47">
@@ -1090,7 +1117,7 @@
         <v>1995.0</v>
       </c>
       <c r="E47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48">
@@ -1107,7 +1134,7 @@
         <v>1996.0</v>
       </c>
       <c r="E48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49">
@@ -1124,7 +1151,7 @@
         <v>1997.0</v>
       </c>
       <c r="E49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50">
@@ -1141,7 +1168,7 @@
         <v>1998.0</v>
       </c>
       <c r="E50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51">
@@ -1158,7 +1185,7 @@
         <v>1999.0</v>
       </c>
       <c r="E51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52">
@@ -1175,7 +1202,7 @@
         <v>2000.0</v>
       </c>
       <c r="E52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53">
@@ -1192,7 +1219,7 @@
         <v>2001.0</v>
       </c>
       <c r="E53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54">
@@ -1209,7 +1236,7 @@
         <v>2002.0</v>
       </c>
       <c r="E54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55">
@@ -1226,7 +1253,7 @@
         <v>2003.0</v>
       </c>
       <c r="E55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56">
@@ -1243,7 +1270,7 @@
         <v>2004.0</v>
       </c>
       <c r="E56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57">
@@ -1260,7 +1287,7 @@
         <v>2005.0</v>
       </c>
       <c r="E57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58">
@@ -1277,7 +1304,7 @@
         <v>2006.0</v>
       </c>
       <c r="E58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59">
@@ -1294,7 +1321,7 @@
         <v>2007.0</v>
       </c>
       <c r="E59" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60">
@@ -1311,7 +1338,143 @@
         <v>2008.0</v>
       </c>
       <c r="E60" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>646.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>646.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>646.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>646.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>646.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>646.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>646.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>646.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1329,50 +1492,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
